--- a/Excel Models/Reinsurance/409.xlsx
+++ b/Excel Models/Reinsurance/409.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcelo.franceschini\OneDrive - GRANT THORNTON BRASIL\MMF\Python\ActuarialServicesGrantThornton\Excel Models\Resseguros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcelo.franceschini\OneDrive - GRANT THORNTON BRASIL\MMF\Python\ActuarialServices\Excel Models\Reinsurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64013CE-66AF-45E7-9701-9077267B461D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{C64013CE-66AF-45E7-9701-9077267B461D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F589A3D6-F8FE-4321-A449-81141B921A83}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{98888A42-5B05-4D7F-AB33-C8C8005036E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{98888A42-5B05-4D7F-AB33-C8C8005036E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Validação 409" sheetId="1" r:id="rId1"/>
@@ -773,6 +773,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,24 +799,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1410,88 +1410,88 @@
     </row>
     <row r="11" spans="1:59" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:59" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="M12" s="37" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="M12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="S12" s="37" t="s">
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
+      <c r="S12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="39"/>
-      <c r="Y12" s="37" t="s">
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="45"/>
+      <c r="Y12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="39"/>
-      <c r="AE12" s="37" t="s">
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="45"/>
+      <c r="AE12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="39"/>
-      <c r="AK12" s="37" t="s">
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="45"/>
+      <c r="AK12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="39"/>
-      <c r="AQ12" s="37" t="s">
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="45"/>
+      <c r="AQ12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="38"/>
-      <c r="AU12" s="39"/>
-      <c r="AW12" s="37" t="s">
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44"/>
+      <c r="AU12" s="45"/>
+      <c r="AW12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AX12" s="38"/>
-      <c r="AY12" s="38"/>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="39"/>
-      <c r="BC12" s="37" t="s">
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="45"/>
+      <c r="BC12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="BD12" s="38"/>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="38"/>
-      <c r="BG12" s="39"/>
+      <c r="BD12" s="44"/>
+      <c r="BE12" s="44"/>
+      <c r="BF12" s="44"/>
+      <c r="BG12" s="45"/>
     </row>
     <row r="13" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="40" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -3176,117 +3176,117 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
       <c r="J26" s="31">
-        <f>SUM(J14:J25)</f>
+        <f>ROUND(SUM(J14:J25),2)</f>
         <v>0</v>
       </c>
       <c r="K26" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M26" s="40" t="s">
+      <c r="M26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
       <c r="P26" s="31">
-        <f>SUM(P14:P25)</f>
+        <f>ROUND(SUM(P14:P25),2)</f>
         <v>0</v>
       </c>
       <c r="Q26" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S26" s="40" t="s">
+      <c r="S26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
       <c r="V26" s="31">
-        <f>SUM(V14:V25)</f>
+        <f>ROUND(SUM(V14:V25),2)</f>
         <v>0</v>
       </c>
       <c r="W26" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="40" t="s">
+      <c r="Y26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
       <c r="AB26" s="31">
-        <f>SUM(AB14:AB25)</f>
+        <f>ROUND(SUM(AB14:AB25),2)</f>
         <v>0</v>
       </c>
       <c r="AC26" s="32">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="40" t="s">
+      <c r="AE26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
       <c r="AH26" s="31">
-        <f>SUM(AH14:AH25)</f>
+        <f>ROUND(SUM(AH14:AH25),2)</f>
         <v>0</v>
       </c>
       <c r="AI26" s="32">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AK26" s="40" t="s">
+      <c r="AK26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AL26" s="41"/>
-      <c r="AM26" s="41"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="42"/>
       <c r="AN26" s="31">
-        <f>SUM(AN14:AN25)</f>
+        <f>ROUND(SUM(AN14:AN25),2)</f>
         <v>0</v>
       </c>
       <c r="AO26" s="32">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AQ26" s="40" t="s">
+      <c r="AQ26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AR26" s="41"/>
-      <c r="AS26" s="41"/>
+      <c r="AR26" s="42"/>
+      <c r="AS26" s="42"/>
       <c r="AT26" s="31">
-        <f>SUM(AT14:AT25)</f>
+        <f>ROUND(SUM(AT14:AT25),2)</f>
         <v>0</v>
       </c>
       <c r="AU26" s="32">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AW26" s="40" t="s">
+      <c r="AW26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AX26" s="41"/>
-      <c r="AY26" s="41"/>
+      <c r="AX26" s="42"/>
+      <c r="AY26" s="42"/>
       <c r="AZ26" s="31">
-        <f>SUM(AZ14:AZ25)</f>
+        <f>ROUND(SUM(AZ14:AZ25),2)</f>
         <v>0</v>
       </c>
       <c r="BA26" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BC26" s="40" t="s">
+      <c r="BC26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="BD26" s="41"/>
-      <c r="BE26" s="41"/>
+      <c r="BD26" s="42"/>
+      <c r="BE26" s="42"/>
       <c r="BF26" s="31">
-        <f>SUM(BF14:BF25)</f>
+        <f>ROUND(SUM(BF14:BF25),2)</f>
         <v>0</v>
       </c>
       <c r="BG26" s="33">
@@ -3373,11 +3373,11 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="35">
         <f>SUM(E14:E33)</f>
         <v>0</v>
@@ -3399,6 +3399,10 @@
     <row r="1048576" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="AQ26:AS26"/>
     <mergeCell ref="AW26:AY26"/>
     <mergeCell ref="BC26:BE26"/>
     <mergeCell ref="B34:D34"/>
@@ -3415,10 +3419,6 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="AQ26:AS26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
